--- a/Deliverables/Week4/Team1_RCT_Part1_v2.0.xlsx
+++ b/Deliverables/Week4/Team1_RCT_Part1_v2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichi\Documents\Software Verification\Deliverables\Week4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC510DC-4F5C-4078-8C95-DB5AF66E05A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CBEFA6-2A4B-41B5-B0A1-A0C65CCCBCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{FE6EB817-81A9-4684-9300-69CB836834AD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="207">
   <si>
     <t>Invoicing</t>
   </si>
@@ -1247,12 +1247,62 @@
   <si>
     <t>5.23 Reconciling Bank Statement</t>
   </si>
+  <si>
+    <t>User Roles: This concerns different internal user access privileges (roles) and how they impact the behavior of core features.
+Example: For instance, an “Admin” role might have full access to all features, while a “Viewer” role may only have read-only access.</t>
+  </si>
+  <si>
+    <t>In “ST-Inv,” configure default invoice terms or payment methods</t>
+  </si>
+  <si>
+    <t>Describes status fields for invoices, bills, purchase orders (POs), quotes, and checks.
+Example: An invoice can have statuses like “Draft,” “Sent,” or “Paid.”</t>
+  </si>
+  <si>
+    <t>Validates individual data entry fields.
+Example: Ensure that invoice amounts are numeric and positive.</t>
+  </si>
+  <si>
+    <t>Validates field value combinations.
+Example: Prevent making a currency inactive if it has outstanding orders.</t>
+  </si>
+  <si>
+    <t>Populates field default values based on another field value.
+Example: Set the default payment terms based on the customer’s location</t>
+  </si>
+  <si>
+    <t>Executes behind-the-screen calculations related to core features.
+Example: Calculate tax amounts based on line items.</t>
+  </si>
+  <si>
+    <t>Addresses simultaneous data manipulation by multiple users.
+Example: Two users editing the same order simultaneously.</t>
+  </si>
+  <si>
+    <t>Relates to the application’s architecture, where front-end and back-end communicate.
+Example: Ensure seamless data flow even during temporary disconnections</t>
+  </si>
+  <si>
+    <t>Core feature behavior when it takes data from another core feature within the same application</t>
+  </si>
+  <si>
+    <t>Core feature in Xero generates data that is used by other core features within the same application</t>
+  </si>
+  <si>
+    <t>Receives data from external sources like Stripe, Square, or banks</t>
+  </si>
+  <si>
+    <t>Related to sending data to third-party integrations like Stripe, Square, or banks</t>
+  </si>
+  <si>
+    <t>Inventory Settings</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,6 +1412,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1620,7 +1681,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1841,6 +1902,28 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2462,15 +2545,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEE5C8E-AF7E-45CE-B047-DC389E69EC89}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A14" zoomScale="50" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.7265625" customWidth="1"/>
     <col min="2" max="2" width="64.81640625" customWidth="1"/>
-    <col min="3" max="3" width="49.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -2484,14 +2567,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="87" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
@@ -2500,115 +2585,141 @@
       <c r="B3" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" s="86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A4" s="61" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="61" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="61" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="61" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="65" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="87" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="62" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="C11" s="87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="62" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="C12" s="87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="63" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="62" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A15" s="63" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="87" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
@@ -2617,7 +2728,9 @@
       <c r="B16" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="90" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A17" s="60" t="s">
@@ -2626,25 +2739,31 @@
       <c r="B17" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="90" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="86" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="60" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="86" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2656,18 +2775,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784862FF-E85A-4289-B66D-BDB598B026B2}">
   <dimension ref="A1:DX357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="BM5" sqref="BM5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" zoomScaleNormal="88" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
-    <col min="2" max="12" width="5.7265625" customWidth="1"/>
-    <col min="13" max="13" width="5.7265625" style="41" customWidth="1"/>
-    <col min="14" max="20" width="5.7265625" customWidth="1"/>
-    <col min="21" max="21" width="5.7265625" style="41" customWidth="1"/>
-    <col min="22" max="80" width="5.7265625" customWidth="1"/>
+    <col min="2" max="12" width="5.7265625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7265625" style="41" hidden="1" customWidth="1"/>
+    <col min="14" max="20" width="5.7265625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7265625" style="41" hidden="1" customWidth="1"/>
+    <col min="22" max="42" width="5.7265625" hidden="1" customWidth="1"/>
+    <col min="43" max="80" width="5.7265625" customWidth="1"/>
     <col min="81" max="81" width="5.7265625" style="41" customWidth="1"/>
     <col min="82" max="96" width="5.7265625" customWidth="1"/>
     <col min="97" max="97" width="5.7265625" style="41" customWidth="1"/>
@@ -3358,29 +3479,75 @@
       <c r="AN5" s="22"/>
       <c r="AO5" s="22"/>
       <c r="AP5" s="23"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="22"/>
-      <c r="BB5" s="22"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="22"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="22"/>
-      <c r="BL5" s="22"/>
-      <c r="BM5" s="22"/>
+      <c r="AQ5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="22">
+        <v>1</v>
+      </c>
       <c r="BN5" s="24"/>
       <c r="BO5" s="20"/>
       <c r="BP5" s="20"/>
@@ -3490,29 +3657,75 @@
       <c r="AN6" s="44"/>
       <c r="AO6" s="44"/>
       <c r="AP6" s="27"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="44"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="44"/>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
+      <c r="AQ6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="44">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="44">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="44">
+        <v>1</v>
+      </c>
       <c r="BN6" s="21"/>
       <c r="BO6" s="21"/>
       <c r="BP6" s="21"/>
@@ -3754,29 +3967,75 @@
       <c r="AN8" s="44"/>
       <c r="AO8" s="44"/>
       <c r="AP8" s="27"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
+      <c r="AQ8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="44">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="44">
+        <v>1</v>
+      </c>
       <c r="BN8" s="45"/>
       <c r="BO8" s="45"/>
       <c r="BP8" s="45"/>
@@ -3886,29 +4145,75 @@
       <c r="AN9" s="22"/>
       <c r="AO9" s="22"/>
       <c r="AP9" s="23"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22"/>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22"/>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22"/>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
+      <c r="AQ9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="22">
+        <v>0</v>
+      </c>
       <c r="BN9" s="21"/>
       <c r="BO9" s="21"/>
       <c r="BP9" s="21"/>
@@ -4018,29 +4323,75 @@
       <c r="AN10" s="22"/>
       <c r="AO10" s="22"/>
       <c r="AP10" s="23"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="22"/>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="22"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="22"/>
-      <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22"/>
-      <c r="BL10" s="22"/>
-      <c r="BM10" s="22"/>
+      <c r="AQ10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="22">
+        <v>0</v>
+      </c>
       <c r="BN10" s="21"/>
       <c r="BO10" s="21"/>
       <c r="BP10" s="21"/>
@@ -4150,29 +4501,75 @@
       <c r="AN11" s="22"/>
       <c r="AO11" s="22"/>
       <c r="AP11" s="23"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="22"/>
-      <c r="AZ11" s="22"/>
-      <c r="BA11" s="22"/>
-      <c r="BB11" s="22"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="22"/>
-      <c r="BE11" s="22"/>
-      <c r="BF11" s="22"/>
-      <c r="BG11" s="22"/>
-      <c r="BH11" s="22"/>
-      <c r="BI11" s="22"/>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="22"/>
-      <c r="BL11" s="22"/>
-      <c r="BM11" s="22"/>
+      <c r="AQ11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="22">
+        <v>0</v>
+      </c>
       <c r="BN11" s="21"/>
       <c r="BO11" s="21"/>
       <c r="BP11" s="21"/>
@@ -4282,29 +4679,75 @@
       <c r="AN12" s="22"/>
       <c r="AO12" s="22"/>
       <c r="AP12" s="23"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="22"/>
-      <c r="BA12" s="22"/>
-      <c r="BB12" s="22"/>
-      <c r="BC12" s="22"/>
-      <c r="BD12" s="22"/>
-      <c r="BE12" s="22"/>
-      <c r="BF12" s="22"/>
-      <c r="BG12" s="22"/>
-      <c r="BH12" s="22"/>
-      <c r="BI12" s="22"/>
-      <c r="BJ12" s="22"/>
-      <c r="BK12" s="22"/>
-      <c r="BL12" s="22"/>
-      <c r="BM12" s="22"/>
+      <c r="AQ12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="22">
+        <v>0</v>
+      </c>
       <c r="BN12" s="21"/>
       <c r="BO12" s="21"/>
       <c r="BP12" s="21"/>
@@ -4414,29 +4857,75 @@
       <c r="AN13" s="22"/>
       <c r="AO13" s="22"/>
       <c r="AP13" s="23"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="22"/>
-      <c r="AZ13" s="22"/>
-      <c r="BA13" s="22"/>
-      <c r="BB13" s="22"/>
-      <c r="BC13" s="22"/>
-      <c r="BD13" s="22"/>
-      <c r="BE13" s="22"/>
-      <c r="BF13" s="22"/>
-      <c r="BG13" s="22"/>
-      <c r="BH13" s="22"/>
-      <c r="BI13" s="22"/>
-      <c r="BJ13" s="22"/>
-      <c r="BK13" s="22"/>
-      <c r="BL13" s="22"/>
-      <c r="BM13" s="22"/>
+      <c r="AQ13" s="83">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="83">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="83">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="83">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="84">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="84">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="84">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="84">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="85">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="85">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="85">
+        <v>0</v>
+      </c>
       <c r="BN13" s="21"/>
       <c r="BO13" s="21"/>
       <c r="BP13" s="21"/>
@@ -4546,29 +5035,75 @@
       <c r="AN14" s="22"/>
       <c r="AO14" s="22"/>
       <c r="AP14" s="23"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="22"/>
-      <c r="AZ14" s="22"/>
-      <c r="BA14" s="22"/>
-      <c r="BB14" s="22"/>
-      <c r="BC14" s="22"/>
-      <c r="BD14" s="22"/>
-      <c r="BE14" s="22"/>
-      <c r="BF14" s="22"/>
-      <c r="BG14" s="22"/>
-      <c r="BH14" s="22"/>
-      <c r="BI14" s="22"/>
-      <c r="BJ14" s="22"/>
-      <c r="BK14" s="22"/>
-      <c r="BL14" s="22"/>
-      <c r="BM14" s="22"/>
+      <c r="AQ14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="22">
+        <v>0</v>
+      </c>
       <c r="BN14" s="21"/>
       <c r="BO14" s="21"/>
       <c r="BP14" s="21"/>
@@ -4678,29 +5213,75 @@
       <c r="AN15" s="22"/>
       <c r="AO15" s="22"/>
       <c r="AP15" s="38"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="22"/>
-      <c r="AZ15" s="22"/>
-      <c r="BA15" s="22"/>
-      <c r="BB15" s="22"/>
-      <c r="BC15" s="22"/>
-      <c r="BD15" s="22"/>
-      <c r="BE15" s="22"/>
-      <c r="BF15" s="22"/>
-      <c r="BG15" s="22"/>
-      <c r="BH15" s="22"/>
-      <c r="BI15" s="22"/>
-      <c r="BJ15" s="22"/>
-      <c r="BK15" s="22"/>
-      <c r="BL15" s="22"/>
-      <c r="BM15" s="22"/>
+      <c r="AQ15" s="37">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="37">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="37">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="37">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BK15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="22">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="22">
+        <v>1</v>
+      </c>
       <c r="BN15" s="21"/>
       <c r="BO15" s="21"/>
       <c r="BP15" s="21"/>
@@ -4810,29 +5391,75 @@
       <c r="AN16" s="22"/>
       <c r="AO16" s="22"/>
       <c r="AP16" s="38"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="22"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="22"/>
-      <c r="BC16" s="22"/>
-      <c r="BD16" s="22"/>
-      <c r="BE16" s="22"/>
-      <c r="BF16" s="22"/>
-      <c r="BG16" s="22"/>
-      <c r="BH16" s="22"/>
-      <c r="BI16" s="22"/>
-      <c r="BJ16" s="22"/>
-      <c r="BK16" s="22"/>
-      <c r="BL16" s="22"/>
-      <c r="BM16" s="22"/>
+      <c r="AQ16" s="37">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="22">
+        <v>0</v>
+      </c>
       <c r="BN16" s="39"/>
       <c r="BO16" s="39"/>
       <c r="BP16" s="39"/>
@@ -4942,29 +5569,75 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
       <c r="AP17" s="38"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="22"/>
-      <c r="AZ17" s="22"/>
-      <c r="BA17" s="22"/>
-      <c r="BB17" s="22"/>
-      <c r="BC17" s="22"/>
-      <c r="BD17" s="22"/>
-      <c r="BE17" s="22"/>
-      <c r="BF17" s="22"/>
-      <c r="BG17" s="22"/>
-      <c r="BH17" s="22"/>
-      <c r="BI17" s="22"/>
-      <c r="BJ17" s="22"/>
-      <c r="BK17" s="22"/>
-      <c r="BL17" s="22"/>
-      <c r="BM17" s="22"/>
+      <c r="AQ17" s="37">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="22">
+        <v>0</v>
+      </c>
       <c r="BN17" s="39"/>
       <c r="BO17" s="39"/>
       <c r="BP17" s="39"/>
@@ -5074,29 +5747,75 @@
       <c r="AN18" s="22"/>
       <c r="AO18" s="22"/>
       <c r="AP18" s="23"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="22"/>
-      <c r="AZ18" s="22"/>
-      <c r="BA18" s="22"/>
-      <c r="BB18" s="22"/>
-      <c r="BC18" s="22"/>
-      <c r="BD18" s="22"/>
-      <c r="BE18" s="22"/>
-      <c r="BF18" s="22"/>
-      <c r="BG18" s="22"/>
-      <c r="BH18" s="22"/>
-      <c r="BI18" s="22"/>
-      <c r="BJ18" s="22"/>
-      <c r="BK18" s="22"/>
-      <c r="BL18" s="22"/>
-      <c r="BM18" s="22"/>
+      <c r="AQ18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="22">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="22">
+        <v>1</v>
+      </c>
       <c r="BN18" s="21"/>
       <c r="BO18" s="21"/>
       <c r="BP18" s="21"/>
@@ -5206,29 +5925,75 @@
       <c r="AN19" s="22"/>
       <c r="AO19" s="22"/>
       <c r="AP19" s="23"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="22"/>
-      <c r="BA19" s="22"/>
-      <c r="BB19" s="22"/>
-      <c r="BC19" s="22"/>
-      <c r="BD19" s="22"/>
-      <c r="BE19" s="22"/>
-      <c r="BF19" s="22"/>
-      <c r="BG19" s="22"/>
-      <c r="BH19" s="22"/>
-      <c r="BI19" s="22"/>
-      <c r="BJ19" s="22"/>
-      <c r="BK19" s="22"/>
-      <c r="BL19" s="22"/>
-      <c r="BM19" s="22"/>
+      <c r="AQ19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="20">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="22">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="22">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="22">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="22">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="22">
+        <v>1</v>
+      </c>
+      <c r="BM19" s="22">
+        <v>1</v>
+      </c>
       <c r="BN19" s="21"/>
       <c r="BO19" s="21"/>
       <c r="BP19" s="21"/>
@@ -5338,29 +6103,75 @@
       <c r="AN20" s="22"/>
       <c r="AO20" s="22"/>
       <c r="AP20" s="23"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="21"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="22"/>
-      <c r="AZ20" s="22"/>
-      <c r="BA20" s="22"/>
-      <c r="BB20" s="22"/>
-      <c r="BC20" s="22"/>
-      <c r="BD20" s="22"/>
-      <c r="BE20" s="22"/>
-      <c r="BF20" s="22"/>
-      <c r="BG20" s="22"/>
-      <c r="BH20" s="22"/>
-      <c r="BI20" s="22"/>
-      <c r="BJ20" s="22"/>
-      <c r="BK20" s="22"/>
-      <c r="BL20" s="22"/>
-      <c r="BM20" s="22"/>
+      <c r="AQ20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="22">
+        <v>0</v>
+      </c>
       <c r="BN20" s="21"/>
       <c r="BO20" s="21"/>
       <c r="BP20" s="21"/>
@@ -5470,29 +6281,75 @@
       <c r="AN21" s="22"/>
       <c r="AO21" s="22"/>
       <c r="AP21" s="23"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="21"/>
-      <c r="AV21" s="21"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="22"/>
-      <c r="AZ21" s="22"/>
-      <c r="BA21" s="22"/>
-      <c r="BB21" s="22"/>
-      <c r="BC21" s="22"/>
-      <c r="BD21" s="22"/>
-      <c r="BE21" s="22"/>
-      <c r="BF21" s="22"/>
-      <c r="BG21" s="22"/>
-      <c r="BH21" s="22"/>
-      <c r="BI21" s="22"/>
-      <c r="BJ21" s="22"/>
-      <c r="BK21" s="22"/>
-      <c r="BL21" s="22"/>
-      <c r="BM21" s="22"/>
+      <c r="AQ21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="22">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="22">
+        <v>1</v>
+      </c>
       <c r="BN21" s="21"/>
       <c r="BO21" s="21"/>
       <c r="BP21" s="21"/>
@@ -5602,29 +6459,75 @@
       <c r="AN22" s="22"/>
       <c r="AO22" s="22"/>
       <c r="AP22" s="23"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="22"/>
-      <c r="AZ22" s="22"/>
-      <c r="BA22" s="22"/>
-      <c r="BB22" s="22"/>
-      <c r="BC22" s="22"/>
-      <c r="BD22" s="22"/>
-      <c r="BE22" s="22"/>
-      <c r="BF22" s="22"/>
-      <c r="BG22" s="22"/>
-      <c r="BH22" s="22"/>
-      <c r="BI22" s="22"/>
-      <c r="BJ22" s="22"/>
-      <c r="BK22" s="22"/>
-      <c r="BL22" s="22"/>
-      <c r="BM22" s="22"/>
+      <c r="AQ22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="22">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="22">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="22">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="22">
+        <v>1</v>
+      </c>
+      <c r="BM22" s="22">
+        <v>0</v>
+      </c>
       <c r="BN22" s="21"/>
       <c r="BO22" s="21"/>
       <c r="BP22" s="21"/>
@@ -5734,29 +6637,75 @@
       <c r="AN23" s="22"/>
       <c r="AO23" s="22"/>
       <c r="AP23" s="23"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="22"/>
-      <c r="AZ23" s="22"/>
-      <c r="BA23" s="22"/>
-      <c r="BB23" s="22"/>
-      <c r="BC23" s="22"/>
-      <c r="BD23" s="22"/>
-      <c r="BE23" s="22"/>
-      <c r="BF23" s="22"/>
-      <c r="BG23" s="22"/>
-      <c r="BH23" s="22"/>
-      <c r="BI23" s="22"/>
-      <c r="BJ23" s="22"/>
-      <c r="BK23" s="22"/>
-      <c r="BL23" s="22"/>
-      <c r="BM23" s="22"/>
+      <c r="AQ23" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="20">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="22">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="22">
+        <v>0</v>
+      </c>
       <c r="BN23" s="21"/>
       <c r="BO23" s="21"/>
       <c r="BP23" s="21"/>
@@ -5866,29 +6815,75 @@
       <c r="AN24" s="22"/>
       <c r="AO24" s="22"/>
       <c r="AP24" s="23"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="22"/>
-      <c r="AZ24" s="22"/>
-      <c r="BA24" s="22"/>
-      <c r="BB24" s="22"/>
-      <c r="BC24" s="22"/>
-      <c r="BD24" s="22"/>
-      <c r="BE24" s="22"/>
-      <c r="BF24" s="22"/>
-      <c r="BG24" s="22"/>
-      <c r="BH24" s="22"/>
-      <c r="BI24" s="22"/>
-      <c r="BJ24" s="22"/>
-      <c r="BK24" s="22"/>
-      <c r="BL24" s="22"/>
-      <c r="BM24" s="22"/>
+      <c r="AQ24" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="22">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="22">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="22">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="22">
+        <v>1</v>
+      </c>
+      <c r="BL24" s="22">
+        <v>1</v>
+      </c>
+      <c r="BM24" s="22">
+        <v>0</v>
+      </c>
       <c r="BN24" s="21"/>
       <c r="BO24" s="21"/>
       <c r="BP24" s="21"/>
@@ -8199,6 +9194,12 @@
     <row r="347" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AB3:AJ3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="V3:AA3"/>
     <mergeCell ref="CM3:CU3"/>
     <mergeCell ref="AK3:AZ3"/>
     <mergeCell ref="BA3:BJ3"/>
@@ -8206,12 +9207,6 @@
     <mergeCell ref="BQ3:BU3"/>
     <mergeCell ref="BV3:CH3"/>
     <mergeCell ref="CI3:CL3"/>
-    <mergeCell ref="AB3:AJ3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="V3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
